--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF7175F-B18F-4502-A8FD-3FB491A07CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2779387C-7755-4B74-9A9C-A804E2CC9FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Учителя" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Учитель1</t>
   </si>
@@ -39,36 +39,6 @@
     <t>Учитель5</t>
   </si>
   <si>
-    <t>Учитель6</t>
-  </si>
-  <si>
-    <t>Учитель7</t>
-  </si>
-  <si>
-    <t>Учитель8</t>
-  </si>
-  <si>
-    <t>Учитель9</t>
-  </si>
-  <si>
-    <t>Учитель10</t>
-  </si>
-  <si>
-    <t>Учитель11</t>
-  </si>
-  <si>
-    <t>Учитель12</t>
-  </si>
-  <si>
-    <t>Учитель13</t>
-  </si>
-  <si>
-    <t>Учитель14</t>
-  </si>
-  <si>
-    <t>Учитель15</t>
-  </si>
-  <si>
     <t>Предмет1</t>
   </si>
   <si>
@@ -84,36 +54,6 @@
     <t>Предмет5</t>
   </si>
   <si>
-    <t>Предмет6</t>
-  </si>
-  <si>
-    <t>Предмет7</t>
-  </si>
-  <si>
-    <t>Предмет8</t>
-  </si>
-  <si>
-    <t>Предмет9</t>
-  </si>
-  <si>
-    <t>Предмет10</t>
-  </si>
-  <si>
-    <t>Предмет11</t>
-  </si>
-  <si>
-    <t>Предмет12</t>
-  </si>
-  <si>
-    <t>Предмет13</t>
-  </si>
-  <si>
-    <t>Предмет14</t>
-  </si>
-  <si>
-    <t>Предмет15</t>
-  </si>
-  <si>
     <t>a1</t>
   </si>
   <si>
@@ -127,36 +67,6 @@
   </si>
   <si>
     <t>a5</t>
-  </si>
-  <si>
-    <t>a6</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>a8</t>
-  </si>
-  <si>
-    <t>a9</t>
-  </si>
-  <si>
-    <t>a10</t>
-  </si>
-  <si>
-    <t>a11</t>
-  </si>
-  <si>
-    <t>a12</t>
-  </si>
-  <si>
-    <t>a13</t>
-  </si>
-  <si>
-    <t>a14</t>
-  </si>
-  <si>
-    <t>a15</t>
   </si>
 </sst>
 </file>
@@ -510,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,56 +451,6 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -601,87 +461,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
+      <selection activeCell="A15" sqref="A6:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -694,13 +504,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1">
         <v>0.33333333333333331</v>
@@ -714,7 +526,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>0.375</v>
@@ -728,7 +540,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>0.33333333333333331</v>
@@ -742,7 +554,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.33333333333333331</v>
@@ -756,7 +568,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>0.375</v>
@@ -769,144 +581,44 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D6">
-        <v>125</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D7">
-        <v>130</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D8">
-        <v>135</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D9">
-        <v>140</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D10">
-        <v>145</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D11">
-        <v>150</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D12">
-        <v>155</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D13">
-        <v>160</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D14">
-        <v>165</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D15">
-        <v>170</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2779387C-7755-4B74-9A9C-A804E2CC9FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8543B4C-CB64-4AE7-B19E-9F389C027D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,22 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Учитель1</t>
-  </si>
-  <si>
-    <t>Учитель2</t>
-  </si>
-  <si>
-    <t>Учитель3</t>
-  </si>
-  <si>
-    <t>Учитель4</t>
-  </si>
-  <si>
-    <t>Учитель5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Предмет1</t>
   </si>
@@ -67,13 +52,19 @@
   </si>
   <si>
     <t>a5</t>
+  </si>
+  <si>
+    <t>ФИОучителя1</t>
+  </si>
+  <si>
+    <t>ФИОучителя2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -81,6 +72,11 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,9 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -420,38 +417,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -471,27 +456,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -505,14 +490,14 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1">
         <v>0.33333333333333331</v>
@@ -526,7 +511,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>0.375</v>
@@ -540,7 +525,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>0.33333333333333331</v>
@@ -554,7 +539,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>0.33333333333333331</v>
@@ -568,7 +553,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>0.375</v>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8543B4C-CB64-4AE7-B19E-9F389C027D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2779387C-7755-4B74-9A9C-A804E2CC9FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Учитель1</t>
+  </si>
+  <si>
+    <t>Учитель2</t>
+  </si>
+  <si>
+    <t>Учитель3</t>
+  </si>
+  <si>
+    <t>Учитель4</t>
+  </si>
+  <si>
+    <t>Учитель5</t>
+  </si>
   <si>
     <t>Предмет1</t>
   </si>
@@ -52,19 +67,13 @@
   </si>
   <si>
     <t>a5</t>
-  </si>
-  <si>
-    <t>ФИОучителя1</t>
-  </si>
-  <si>
-    <t>ФИОучителя2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -72,11 +81,6 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,10 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -417,26 +420,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -456,27 +471,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -490,14 +505,14 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A6" sqref="A6:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1">
         <v>0.33333333333333331</v>
@@ -511,7 +526,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>0.375</v>
@@ -525,7 +540,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>0.33333333333333331</v>
@@ -539,7 +554,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.33333333333333331</v>
@@ -553,7 +568,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>0.375</v>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2779387C-7755-4B74-9A9C-A804E2CC9FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD1DF66-C9FB-4BA2-9F97-4CF8D7C1DC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,22 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Учитель1</t>
-  </si>
-  <si>
-    <t>Учитель2</t>
-  </si>
-  <si>
-    <t>Учитель3</t>
-  </si>
-  <si>
-    <t>Учитель4</t>
-  </si>
-  <si>
-    <t>Учитель5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Предмет1</t>
   </si>
@@ -67,6 +52,12 @@
   </si>
   <si>
     <t>a5</t>
+  </si>
+  <si>
+    <t>ФИОучителя1</t>
+  </si>
+  <si>
+    <t>ФИОучителя2</t>
   </si>
 </sst>
 </file>
@@ -420,37 +411,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -471,27 +447,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +488,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1">
         <v>0.33333333333333331</v>
@@ -526,7 +502,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>0.375</v>
@@ -540,7 +516,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>0.33333333333333331</v>
@@ -554,7 +530,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>0.33333333333333331</v>
@@ -568,7 +544,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>0.375</v>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD1DF66-C9FB-4BA2-9F97-4CF8D7C1DC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D40D54B-C4C1-4303-8F56-E12850020CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>a5</t>
   </si>
   <si>
-    <t>ФИОучителя1</t>
-  </si>
-  <si>
-    <t>ФИОучителя2</t>
+    <t>Преподаватель 1</t>
+  </si>
+  <si>
+    <t>Преподаватель 2</t>
   </si>
 </sst>
 </file>
@@ -414,10 +414,13 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D40D54B-C4C1-4303-8F56-E12850020CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2E8C5-2C56-4281-AAD0-5F4A301E5E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Учителя" sheetId="1" r:id="rId1"/>
     <sheet name="Предметы" sheetId="2" r:id="rId2"/>
     <sheet name="Кабинеты" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>Преподаватель 1</t>
+  </si>
+  <si>
+    <t>Преподаватель 2</t>
+  </si>
+  <si>
     <t>Предмет1</t>
   </si>
   <si>
@@ -52,25 +58,16 @@
   </si>
   <si>
     <t>a5</t>
-  </si>
-  <si>
-    <t>Преподаватель 1</t>
-  </si>
-  <si>
-    <t>Преподаватель 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -94,9 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -413,7 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -422,19 +420,20 @@
     <col min="1" max="1" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -448,34 +447,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -483,29 +483,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D1">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2">
+        <v>36526.333333333336</v>
+      </c>
+      <c r="C1" s="2">
+        <v>36526.979166666664</v>
+      </c>
+      <c r="D1" s="0">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>0.375</v>
@@ -513,94 +516,95 @@
       <c r="C2" s="1">
         <v>0.875</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D3">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="D3" s="0">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4" s="1">
         <v>0.875</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>0.375</v>
       </c>
       <c r="C5" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D5">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D5" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2E8C5-2C56-4281-AAD0-5F4A301E5E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EADA73-E444-4068-91FB-3E783D332812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Предметы" sheetId="2" r:id="rId2"/>
     <sheet name="Кабинеты" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -64,8 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -93,8 +92,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -420,20 +419,19 @@
     <col min="1" max="1" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -447,35 +445,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -484,7 +481,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,22 +489,22 @@
     <col min="2" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2">
-        <v>36526.333333333336</v>
+        <v>36526.25</v>
       </c>
       <c r="C1" s="2">
-        <v>36526.979166666664</v>
-      </c>
-      <c r="D1" s="0">
+        <v>36526.854166666664</v>
+      </c>
+      <c r="D1">
         <v>100</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
@@ -516,95 +513,94 @@
       <c r="C2" s="1">
         <v>0.875</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>150</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C3" s="1">
-        <v>0.8541666666666666</v>
-      </c>
-      <c r="D3" s="0">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D3">
         <v>50</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C4" s="1">
         <v>0.875</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>100</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>0.375</v>
       </c>
       <c r="C5" s="1">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="D5" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D5">
         <v>150</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Предметы" sheetId="2" r:id="rId2"/>
     <sheet name="Кабинеты" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -64,7 +64,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -92,8 +93,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -419,19 +420,20 @@
     <col min="1" max="1" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -445,34 +447,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -489,22 +492,22 @@
     <col min="2" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2">
         <v>36526.25</v>
       </c>
       <c r="C1" s="2">
-        <v>36526.854166666664</v>
-      </c>
-      <c r="D1">
+        <v>36526.979166666664</v>
+      </c>
+      <c r="D1" s="0">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
@@ -513,94 +516,95 @@
       <c r="C2" s="1">
         <v>0.875</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D3">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="D3" s="0">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4" s="1">
         <v>0.875</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>0.375</v>
       </c>
       <c r="C5" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D5">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D5" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,26 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EADA73-E444-4068-91FB-3E783D332812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7585B6-D5E3-4AB7-8E54-25D59EDDEAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="3675" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Учителя" sheetId="1" r:id="rId1"/>
     <sheet name="Предметы" sheetId="2" r:id="rId2"/>
     <sheet name="Кабинеты" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Преподаватель 1</t>
-  </si>
-  <si>
-    <t>Преподаватель 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>ФИученика21</t>
+  </si>
+  <si>
+    <t>ФИученика22</t>
+  </si>
+  <si>
+    <t>ФИученика23</t>
+  </si>
+  <si>
+    <t>ФИученика24</t>
+  </si>
+  <si>
+    <t>ФИученика25</t>
   </si>
   <si>
     <t>Предмет1</t>
@@ -57,15 +66,17 @@
     <t>a4</t>
   </si>
   <si>
-    <t>a5</t>
+    <t>a6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -93,8 +104,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -409,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,20 +431,34 @@
     <col min="1" max="1" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -442,49 +467,48 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A6:A15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,23 +516,23 @@
     <col min="2" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>7</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="2">
-        <v>36526.25</v>
+        <v>0.25</v>
       </c>
       <c r="C1" s="2">
-        <v>36526.979166666664</v>
-      </c>
-      <c r="D1" s="0">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D1">
         <v>100</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>0.375</v>
@@ -516,95 +540,54 @@
       <c r="C2" s="1">
         <v>0.875</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>150</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C3" s="1">
-        <v>0.8541666666666666</v>
-      </c>
-      <c r="D3" s="0">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D3">
         <v>50</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C4" s="1">
         <v>0.875</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>100</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>0.375</v>
+        <v>36526.25</v>
       </c>
       <c r="C5" s="1">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="D5" s="0">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+        <v>36526.979166666664</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,24 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7585B6-D5E3-4AB7-8E54-25D59EDDEAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20D16FA-11DD-43F0-8D62-3C67540768FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="3675" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Учителя" sheetId="1" r:id="rId1"/>
     <sheet name="Предметы" sheetId="2" r:id="rId2"/>
     <sheet name="Кабинеты" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>ФИученика21</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ФИученика22</t>
   </si>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t>Предмет5</t>
-  </si>
-  <si>
-    <t>a1</t>
   </si>
   <si>
     <t>a2</t>
@@ -76,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -102,10 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -420,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,34 +424,30 @@
     <col min="1" max="1" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -472,42 +461,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -516,78 +506,65 @@
     <col min="2" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D1" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="D1">
+      <c r="B2" s="1">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="D2" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D3" s="0">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="1">
-        <v>0.33333333333333331</v>
+        <v>36526.25</v>
       </c>
       <c r="C4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1">
-        <v>36526.25</v>
-      </c>
-      <c r="C5" s="1">
         <v>36526.979166666664</v>
       </c>
-      <c r="D5">
+      <c r="D4" s="0">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,48 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20D16FA-11DD-43F0-8D62-3C67540768FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0C4F44-04F7-44E9-B2E6-C12C87934CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Учителя" sheetId="1" r:id="rId1"/>
-    <sheet name="Предметы" sheetId="2" r:id="rId2"/>
-    <sheet name="Кабинеты" sheetId="3" r:id="rId3"/>
+    <sheet name="Кабинеты" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>ФИученика22</t>
-  </si>
-  <si>
-    <t>ФИученика23</t>
-  </si>
-  <si>
-    <t>ФИученика24</t>
-  </si>
-  <si>
-    <t>ФИученика25</t>
-  </si>
-  <si>
-    <t>Предмет1</t>
-  </si>
-  <si>
-    <t>Предмет2</t>
-  </si>
-  <si>
-    <t>Предмет3</t>
-  </si>
-  <si>
-    <t>Предмет4</t>
-  </si>
-  <si>
-    <t>Предмет5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>a2</t>
   </si>
@@ -67,10 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm"/>
-  </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -98,7 +66,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -412,92 +380,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="57.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -506,9 +392,9 @@
     <col min="2" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>9</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>0.375</v>
@@ -516,41 +402,41 @@
       <c r="C1" s="1">
         <v>0.875</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>150</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C2" s="1">
-        <v>0.8541666666666666</v>
-      </c>
-      <c r="D2" s="0">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D2">
         <v>50</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C3" s="1">
         <v>0.875</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>100</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>36526.25</v>
@@ -558,13 +444,12 @@
       <c r="C4" s="1">
         <v>36526.979166666664</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\source\repos\M4dOS\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0C4F44-04F7-44E9-B2E6-C12C87934CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AA75E4-A8F4-41CA-97B0-B678C9381921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Кабинеты" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>a2</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>a6</t>
+  </si>
+  <si>
+    <t>a1</t>
   </si>
 </sst>
 </file>
@@ -381,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +451,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
